--- a/template_honorer.xlsx
+++ b/template_honorer.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C600CA-CFE5-43AB-BD2E-D2987A78DE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA216A8-6630-403A-870E-B1CCAB5B30E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>SELONG,</t>
   </si>
   <si>
-    <t>Plt. KEPALA DINAS PERUMAHAN DAN KAWASAN PERMUKIMAN</t>
-  </si>
-  <si>
     <t>KABUPATEN LOMBOK TIMUR</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>email : perkim@lomboktimurkab.go.id Kode Pos 83612</t>
+  </si>
+  <si>
+    <t>KEPALA DINAS PERUMAHAN DAN KAWASAN PERMUKIMAN</t>
   </si>
 </sst>
 </file>
@@ -198,20 +198,20 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,7 +580,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -605,8 +605,8 @@
   </sheetPr>
   <dimension ref="A2:L57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:J12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +667,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -696,20 +696,20 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12" s="8" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -717,14 +717,14 @@
       </c>
       <c r="B9" s="9">
         <f ca="1">TODAY()</f>
-        <v>45783</v>
+        <v>45874</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
     <row r="11" spans="1:12" s="10" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A11" s="19">
+      <c r="A11" s="16">
         <f>Lembar1!A1</f>
         <v>0</v>
       </c>
@@ -753,7 +753,7 @@
       <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="15">
         <f>Lembar1!A2</f>
         <v>0</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="15">
         <f>Lembar1!A3</f>
         <v>0</v>
       </c>
@@ -811,7 +811,7 @@
       <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="15">
         <f>Lembar1!A4</f>
         <v>0</v>
       </c>
@@ -840,7 +840,7 @@
       <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="15">
         <f>Lembar1!A5</f>
         <v>0</v>
       </c>
@@ -869,7 +869,7 @@
       <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="15">
         <f>Lembar1!A6</f>
         <v>0</v>
       </c>
@@ -898,7 +898,7 @@
       <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="15">
         <f>Lembar1!A7</f>
         <v>0</v>
       </c>
@@ -927,7 +927,7 @@
       <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="15">
         <f>Lembar1!A8</f>
         <v>0</v>
       </c>
@@ -956,7 +956,7 @@
       <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="15">
         <f>Lembar1!A9</f>
         <v>0</v>
       </c>
@@ -985,7 +985,7 @@
       <c r="L19" s="18"/>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="15">
         <f>Lembar1!A10</f>
         <v>0</v>
       </c>
@@ -1014,7 +1014,7 @@
       <c r="L20" s="18"/>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="15">
         <f>Lembar1!A11</f>
         <v>0</v>
       </c>
@@ -1043,7 +1043,7 @@
       <c r="L21" s="18"/>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="15">
         <f>Lembar1!A12</f>
         <v>0</v>
       </c>
@@ -1072,7 +1072,7 @@
       <c r="L22" s="18"/>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="A23" s="15">
         <f>Lembar1!A13</f>
         <v>0</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="L23" s="18"/>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="15">
         <f>Lembar1!A14</f>
         <v>0</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="L24" s="18"/>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="A25" s="15">
         <f>Lembar1!A15</f>
         <v>0</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="L25" s="18"/>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="15">
         <f>Lembar1!A16</f>
         <v>0</v>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="L26" s="18"/>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="A27" s="15">
         <f>Lembar1!A17</f>
         <v>0</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="L27" s="18"/>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28" s="15">
         <f>Lembar1!A18</f>
         <v>0</v>
       </c>
@@ -1246,7 +1246,7 @@
       <c r="L28" s="18"/>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="A29" s="15">
         <f>Lembar1!A19</f>
         <v>0</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="L29" s="18"/>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="A30" s="15">
         <f>Lembar1!A20</f>
         <v>0</v>
       </c>
@@ -1304,7 +1304,7 @@
       <c r="L30" s="18"/>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="A31" s="15">
         <f>Lembar1!A21</f>
         <v>0</v>
       </c>
@@ -1336,22 +1336,22 @@
       <c r="G34" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="17">
         <f ca="1">TODAY()</f>
-        <v>45783</v>
-      </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
+        <v>45874</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
     </row>
     <row r="35" spans="7:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="H35" s="11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="7:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="H36" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I36" s="12"/>
     </row>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="39" spans="7:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="H39" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="7:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="H40" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I40" s="12"/>
     </row>
@@ -1398,19 +1398,63 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:L23"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:J30"/>
@@ -1427,63 +1471,19 @@
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="G27:J27"/>
     <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:L31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/template_honorer.xlsx
+++ b/template_honorer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA216A8-6630-403A-870E-B1CCAB5B30E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE556A68-254B-4A02-B5AA-D8D07AEF0C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
     <t>Jalan Prof. M. Yamin No. 57 Selong 83612 Komplek Kantor Bupati Lantai 4 Blok E</t>
   </si>
   <si>
-    <t>DAFTAR HADIR NON ASN</t>
-  </si>
-  <si>
     <t>Tanggal :</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>KEPALA DINAS PERUMAHAN DAN KAWASAN PERMUKIMAN</t>
+  </si>
+  <si>
+    <t>ABSENSI PULANG NON ASN</t>
   </si>
 </sst>
 </file>
@@ -202,9 +202,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -212,6 +209,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,13 +606,13 @@
   <dimension ref="A2:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="H34" sqref="H34:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -667,7 +667,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -696,29 +696,26 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="A8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" s="8" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="9">
-        <f ca="1">TODAY()</f>
-        <v>45874</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -728,630 +725,627 @@
         <f>Lembar1!A1</f>
         <v>0</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <f>Lembar1!B1</f>
         <v>0</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19">
         <f>Lembar1!C1</f>
         <v>0</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19">
         <f>Lembar1!D1</f>
         <v>0</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20">
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19">
         <f>Lembar1!E1</f>
         <v>0</v>
       </c>
-      <c r="L11" s="20"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <f>Lembar1!A2</f>
         <v>0</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <f>Lembar1!B2</f>
         <v>0</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17">
         <f>Lembar1!C2</f>
         <v>0</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17">
         <f>Lembar1!D2</f>
         <v>0</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18">
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17">
         <f>Lembar1!E2</f>
         <v>0</v>
       </c>
-      <c r="L12" s="18"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <f>Lembar1!A3</f>
         <v>0</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <f>Lembar1!B3</f>
         <v>0</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17">
         <f>Lembar1!C3</f>
         <v>0</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18">
+      <c r="F13" s="17"/>
+      <c r="G13" s="17">
         <f>Lembar1!D3</f>
         <v>0</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18">
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17">
         <f>Lembar1!E3</f>
         <v>0</v>
       </c>
-      <c r="L13" s="18"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <f>Lembar1!A4</f>
         <v>0</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <f>Lembar1!B4</f>
         <v>0</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17">
         <f>Lembar1!C4</f>
         <v>0</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17">
         <f>Lembar1!D4</f>
         <v>0</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18">
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17">
         <f>Lembar1!E4</f>
         <v>0</v>
       </c>
-      <c r="L14" s="18"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <f>Lembar1!A5</f>
         <v>0</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <f>Lembar1!B5</f>
         <v>0</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17">
         <f>Lembar1!C5</f>
         <v>0</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17">
         <f>Lembar1!D5</f>
         <v>0</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18">
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17">
         <f>Lembar1!E5</f>
         <v>0</v>
       </c>
-      <c r="L15" s="18"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <f>Lembar1!A6</f>
         <v>0</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <f>Lembar1!B6</f>
         <v>0</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17">
         <f>Lembar1!C6</f>
         <v>0</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17">
         <f>Lembar1!D6</f>
         <v>0</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18">
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17">
         <f>Lembar1!E6</f>
         <v>0</v>
       </c>
-      <c r="L16" s="18"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <f>Lembar1!A7</f>
         <v>0</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <f>Lembar1!B7</f>
         <v>0</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17">
         <f>Lembar1!C7</f>
         <v>0</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18">
+      <c r="F17" s="17"/>
+      <c r="G17" s="17">
         <f>Lembar1!D7</f>
         <v>0</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18">
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17">
         <f>Lembar1!E7</f>
         <v>0</v>
       </c>
-      <c r="L17" s="18"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <f>Lembar1!A8</f>
         <v>0</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <f>Lembar1!B8</f>
         <v>0</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17">
         <f>Lembar1!C8</f>
         <v>0</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18">
+      <c r="F18" s="17"/>
+      <c r="G18" s="17">
         <f>Lembar1!D8</f>
         <v>0</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18">
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17">
         <f>Lembar1!E8</f>
         <v>0</v>
       </c>
-      <c r="L18" s="18"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <f>Lembar1!A9</f>
         <v>0</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <f>Lembar1!B9</f>
         <v>0</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17">
         <f>Lembar1!C9</f>
         <v>0</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17">
         <f>Lembar1!D9</f>
         <v>0</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18">
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17">
         <f>Lembar1!E9</f>
         <v>0</v>
       </c>
-      <c r="L19" s="18"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <f>Lembar1!A10</f>
         <v>0</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <f>Lembar1!B10</f>
         <v>0</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17">
         <f>Lembar1!C10</f>
         <v>0</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17">
         <f>Lembar1!D10</f>
         <v>0</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18">
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17">
         <f>Lembar1!E10</f>
         <v>0</v>
       </c>
-      <c r="L20" s="18"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <f>Lembar1!A11</f>
         <v>0</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="17">
         <f>Lembar1!B11</f>
         <v>0</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17">
         <f>Lembar1!C11</f>
         <v>0</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18">
+      <c r="F21" s="17"/>
+      <c r="G21" s="17">
         <f>Lembar1!D11</f>
         <v>0</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18">
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17">
         <f>Lembar1!E11</f>
         <v>0</v>
       </c>
-      <c r="L21" s="18"/>
+      <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <f>Lembar1!A12</f>
         <v>0</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="17">
         <f>Lembar1!B12</f>
         <v>0</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17">
         <f>Lembar1!C12</f>
         <v>0</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18">
+      <c r="F22" s="17"/>
+      <c r="G22" s="17">
         <f>Lembar1!D12</f>
         <v>0</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18">
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17">
         <f>Lembar1!E12</f>
         <v>0</v>
       </c>
-      <c r="L22" s="18"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <f>Lembar1!A13</f>
         <v>0</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="17">
         <f>Lembar1!B13</f>
         <v>0</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17">
         <f>Lembar1!C13</f>
         <v>0</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17">
         <f>Lembar1!D13</f>
         <v>0</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18">
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17">
         <f>Lembar1!E13</f>
         <v>0</v>
       </c>
-      <c r="L23" s="18"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <f>Lembar1!A14</f>
         <v>0</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="17">
         <f>Lembar1!B14</f>
         <v>0</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17">
         <f>Lembar1!C14</f>
         <v>0</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18">
+      <c r="F24" s="17"/>
+      <c r="G24" s="17">
         <f>Lembar1!D14</f>
         <v>0</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18">
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17">
         <f>Lembar1!E14</f>
         <v>0</v>
       </c>
-      <c r="L24" s="18"/>
+      <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <f>Lembar1!A15</f>
         <v>0</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="17">
         <f>Lembar1!B15</f>
         <v>0</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17">
         <f>Lembar1!C15</f>
         <v>0</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18">
+      <c r="F25" s="17"/>
+      <c r="G25" s="17">
         <f>Lembar1!D15</f>
         <v>0</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18">
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17">
         <f>Lembar1!E15</f>
         <v>0</v>
       </c>
-      <c r="L25" s="18"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <f>Lembar1!A16</f>
         <v>0</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="17">
         <f>Lembar1!B16</f>
         <v>0</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17">
         <f>Lembar1!C16</f>
         <v>0</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18">
+      <c r="F26" s="17"/>
+      <c r="G26" s="17">
         <f>Lembar1!D16</f>
         <v>0</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18">
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17">
         <f>Lembar1!E16</f>
         <v>0</v>
       </c>
-      <c r="L26" s="18"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <f>Lembar1!A17</f>
         <v>0</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="17">
         <f>Lembar1!B17</f>
         <v>0</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17">
         <f>Lembar1!C17</f>
         <v>0</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18">
+      <c r="F27" s="17"/>
+      <c r="G27" s="17">
         <f>Lembar1!D17</f>
         <v>0</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18">
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17">
         <f>Lembar1!E17</f>
         <v>0</v>
       </c>
-      <c r="L27" s="18"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <f>Lembar1!A18</f>
         <v>0</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="17">
         <f>Lembar1!B18</f>
         <v>0</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18">
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17">
         <f>Lembar1!C18</f>
         <v>0</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18">
+      <c r="F28" s="17"/>
+      <c r="G28" s="17">
         <f>Lembar1!D18</f>
         <v>0</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18">
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17">
         <f>Lembar1!E18</f>
         <v>0</v>
       </c>
-      <c r="L28" s="18"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <f>Lembar1!A19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="17">
         <f>Lembar1!B19</f>
         <v>0</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17">
         <f>Lembar1!C19</f>
         <v>0</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18">
+      <c r="F29" s="17"/>
+      <c r="G29" s="17">
         <f>Lembar1!D19</f>
         <v>0</v>
       </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18">
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17">
         <f>Lembar1!E19</f>
         <v>0</v>
       </c>
-      <c r="L29" s="18"/>
+      <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <f>Lembar1!A20</f>
         <v>0</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="17">
         <f>Lembar1!B20</f>
         <v>0</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17">
         <f>Lembar1!C20</f>
         <v>0</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18">
+      <c r="F30" s="17"/>
+      <c r="G30" s="17">
         <f>Lembar1!D20</f>
         <v>0</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18">
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17">
         <f>Lembar1!E20</f>
         <v>0</v>
       </c>
-      <c r="L30" s="18"/>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <f>Lembar1!A21</f>
         <v>0</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="17">
         <f>Lembar1!B21</f>
         <v>0</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17">
         <f>Lembar1!C21</f>
         <v>0</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18">
+      <c r="F31" s="17"/>
+      <c r="G31" s="17">
         <f>Lembar1!D21</f>
         <v>0</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18">
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17">
         <f>Lembar1!E21</f>
         <v>0</v>
       </c>
-      <c r="L31" s="18"/>
+      <c r="L31" s="17"/>
     </row>
     <row r="34" spans="7:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="G34" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="17">
-        <f ca="1">TODAY()</f>
-        <v>45874</v>
-      </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
     </row>
     <row r="35" spans="7:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="H35" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="7:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="H36" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I36" s="12"/>
     </row>
@@ -1365,13 +1359,13 @@
     </row>
     <row r="39" spans="7:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="H39" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="7:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="H40" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I40" s="12"/>
     </row>
@@ -1398,15 +1392,67 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:J18"/>
@@ -1423,71 +1469,19 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>